--- a/biology/Médecine/Albert_Freeman_Africanus_King/Albert_Freeman_Africanus_King.xlsx
+++ b/biology/Médecine/Albert_Freeman_Africanus_King/Albert_Freeman_Africanus_King.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Albert Freeman Africanus King (18 janvier 1841 - décembre 1914) est un médecin, professeur d'obstétrique américain, d'origine britannique, qui fut l'un des premiers à suggérer une relation entre moustiques et malaria. Il fut aussi l'un des premiers médecins à porter secours au président Abraham Lincoln, après que John Wilkes Booth ait tiré sur lui le 14 avril 1865 dans le théâtre Ford à Washington, D.C..
 </t>
@@ -511,9 +523,11 @@
           <t>Jeunesse et études</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Albert naît à Bicester, un village du Oxfordshire en Angleterre.  Il est le fils d'Edward K. King[1], un médecin qui se passionne pour le continent africain. Passion à laquelle son fils doit son troisième prénom : « Africanus »[2].  Albert n'est âgé que de dix ans lorsque sa famille émigre aux États-Unis. Il étudie la médecine au Columbia Medical College puis à l'Université de Pennsylvanie, où il obtient son diplôme en 1865, à l'âge de 24 ans.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Albert naît à Bicester, un village du Oxfordshire en Angleterre.  Il est le fils d'Edward K. King, un médecin qui se passionne pour le continent africain. Passion à laquelle son fils doit son troisième prénom : « Africanus ».  Albert n'est âgé que de dix ans lorsque sa famille émigre aux États-Unis. Il étudie la médecine au Columbia Medical College puis à l'Université de Pennsylvanie, où il obtient son diplôme en 1865, à l'âge de 24 ans.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Malaria</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 10 février 1882, King présente à la Philosophical Society de Washington, D.C. son intuition quant à la malaria qui sévit dans la capitale américaine. Dans son exposé, il indique que la malaria « peut s'expliquer, par la supposition que le moustique est la véritable source de la maladie, plutôt que par l'inhalation ou l'absorption par voie cutanée de la vapeur des marais. »[3],[4] (Le nom de la maladie vient de l'italien malaria qui signifie « mauvais air ».) King communique son intuition six ans avant que le médecin français Charles Louis Alphonse Laveran, qui travaille alors en Algérie identifie le parasite responsable de la maladie et plus de dix ans avant que le britannique Ronald Ross ne confirme la transmission de la malaria par les moustiques.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 10 février 1882, King présente à la Philosophical Society de Washington, D.C. son intuition quant à la malaria qui sévit dans la capitale américaine. Dans son exposé, il indique que la malaria « peut s'expliquer, par la supposition que le moustique est la véritable source de la maladie, plutôt que par l'inhalation ou l'absorption par voie cutanée de la vapeur des marais. », (Le nom de la maladie vient de l'italien malaria qui signifie « mauvais air ».) King communique son intuition six ans avant que le médecin français Charles Louis Alphonse Laveran, qui travaille alors en Algérie identifie le parasite responsable de la maladie et plus de dix ans avant que le britannique Ronald Ross ne confirme la transmission de la malaria par les moustiques.
 Si l'intuition de King est la bonne, la solution qu'il propose ensuite à son auditoire prête plutôt à sourire, puisqu'il préconise, ni plus ni moins de recouvrir Washington sous une moustiquaire géante. On ignore toujours, à ce jour, si cette proposition était sérieuse ou faite simplement sous forme d'une boutade pour amuser son auditoire. Il n'en est pas moins vrai que personne ne prit au sérieux l'intuition de King et qu'aucune recherche ne fut entreprise en ce sens.
 </t>
         </is>
@@ -574,7 +590,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>A manual of obstetrics, Philadelphia : Henry C. Lea's Son &amp; Co., 1882. (OCLC 14789263)
 Dystocia from short or coiled funis, and its treatment, Chicago : Office of the American Medical Association, 1887. (OCLC 70663784)
